--- a/data/income_statement/3digits/total/461_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/461_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>461-Wholesale on a fee or contract basis</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>461-Wholesale on a fee or contract basis</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>3546654.60505</v>
@@ -956,160 +862,180 @@
         <v>4306680.418670001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>5418080.78755</v>
+        <v>5418400.762790001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>6306282.11931</v>
+        <v>6376524.64792</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>7315850.24619</v>
+        <v>7343325.56455</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>9661271.979859998</v>
+        <v>9714329.88436</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>11913666.55195</v>
+        <v>12075686.72215</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>15759900.24575</v>
+        <v>15843702.98346</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>23401362.46191</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>28268768.34326</v>
+        <v>28731868.32883</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>32880355.04829</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>34158908.71595</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>42881667.645</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2936259.67453</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3648754.12248</v>
+        <v>3648754.122479999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>4518501.47438</v>
+        <v>4518821.44962</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>5269087.898739999</v>
+        <v>5275214.679559999</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>5990452.612710001</v>
+        <v>6017538.97507</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>7932942.42735</v>
+        <v>7983405.343699999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>10034305.36446</v>
+        <v>10175853.06951</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>12451636.55282</v>
+        <v>12481197.4316</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>18169343.81127</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>21704292.90155</v>
+        <v>21973412.76707</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>23979433.01038</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>24733175.77148</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>32415633.636</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>547162.1612699999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>577654.7225400001</v>
+        <v>577654.72254</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>792288.9865800001</v>
+        <v>792288.9865799999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>919525.76836</v>
+        <v>983219.8952099999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1209642.79534</v>
+        <v>1209646.9588</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1564935.3387</v>
+        <v>1567447.52318</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1693237.25408</v>
+        <v>1712219.62413</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>3108458.94267</v>
+        <v>3162368.24326</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>4936749.87629</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>6227532.6963</v>
+        <v>6419123.28786</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>8460543.93372</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>8981284.273089999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>9978808.607999999</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>63232.76925</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>80271.57365000001</v>
+        <v>80271.57364999999</v>
       </c>
       <c r="E8" s="48" t="n">
         <v>107290.32659</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>117668.45221</v>
+        <v>118090.07315</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>115754.83814</v>
+        <v>116139.63068</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>163394.21381</v>
+        <v>163477.01748</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>186123.93341</v>
+        <v>187614.02851</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>199804.75026</v>
+        <v>200137.3086</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>295268.77435</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>336942.74541</v>
+        <v>339332.2739</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>440378.1041899999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>444448.6713800001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>487225.401</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>43085.53257</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>49322.39106</v>
+        <v>49322.39105999999</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>50638.49528</v>
@@ -1118,31 +1044,36 @@
         <v>57490.17356</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>72687.46338</v>
+        <v>72687.64237999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>115560.83052</v>
+        <v>115560.85844</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>132119.02281</v>
+        <v>132514.59673</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>249614.17888</v>
+        <v>250083.96292</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>266207.89561</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>686651.3857400002</v>
+        <v>688114.72438</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>512723.85536</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>518667.38506</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1602438.46</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>18078.90018</v>
@@ -1157,31 +1088,36 @@
         <v>31565.84098</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>37970.33096</v>
+        <v>37970.50996</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>85085.49331999999</v>
+        <v>85085.52124</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>100695.251</v>
+        <v>100914.22181</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>170416.6302</v>
+        <v>170883.64104</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>159988.7256</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>520046.27564</v>
+        <v>521398.15537</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>265455.27294</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>267137.93505</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>1302314.228</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>23364.98771</v>
@@ -1202,25 +1138,30 @@
         <v>20188.69636</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>22078.86339</v>
+        <v>22085.80279</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>65977.55546999999</v>
+        <v>65980.32867</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>81114.81011000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>122266.61242</v>
+        <v>122319.09553</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>188409.05001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>192434.68613</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>203417.808</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1641.64468</v>
@@ -1241,7 +1182,7 @@
         <v>10286.64084</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>9344.90842</v>
+        <v>9514.57213</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>13219.99321</v>
@@ -1250,133 +1191,153 @@
         <v>25104.3599</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>44338.49768</v>
+        <v>44397.47348</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>58859.53241</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>59094.76388</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>96706.424</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3503569.072480001</v>
+        <v>3503569.07248</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4257358.02761</v>
+        <v>4257358.027609999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5367442.29227</v>
+        <v>5367762.26751</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6248791.94575</v>
+        <v>6319034.47436</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7243162.782810002</v>
+        <v>7270637.92217</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>9545711.14934</v>
+        <v>9598769.025919998</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>11781547.52914</v>
+        <v>11943172.12542</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>15510286.06687</v>
+        <v>15593619.02054</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>23135154.5663</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>27582116.95752</v>
+        <v>28043753.60445</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>32367631.19293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>33640241.33089</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>41279229.185</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3046447.24758</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3695893.91444</v>
+        <v>3695893.914439999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4696623.32538</v>
+        <v>4696787.460860001</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>5460855.145800001</v>
+        <v>5529684.04696</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>6300724.73952</v>
+        <v>6325422.39484</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>8369478.006</v>
+        <v>8420028.611470001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>10305001.3334</v>
+        <v>10440495.90373</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>13730595.91119</v>
+        <v>13770013.69155</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>20599219.38321</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>24436366.35513</v>
+        <v>24871006.93545001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>28637712.63209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>29862111.97609</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>36513666.773</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>56139.01654</v>
+        <v>56139.01653999999</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>81891.13884999999</v>
+        <v>81891.13885</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>101122.68435</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>141574.40041</v>
+        <v>141777.4352</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>143492.90303</v>
+        <v>143693.98503</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>222117.86678</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>245207.63737</v>
+        <v>248692.52663</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>293719.88915</v>
+        <v>298777.18996</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>626778.6004799999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>853478.951</v>
+        <v>856466.6755</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1197070.41425</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1208173.59486</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>1434844.646</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1924383.55263</v>
@@ -1385,37 +1346,42 @@
         <v>2483613.86215</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>3270013.70628</v>
+        <v>3270063.46128</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>3912439.27137</v>
+        <v>3979164.88058</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>4735273.820520001</v>
+        <v>4759716.857639999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>6522103.833610001</v>
+        <v>6564604.57545</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>8263666.585849999</v>
+        <v>8349810.373160001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>11283360.82887</v>
+        <v>11310450.18879</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>17337849.01601</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>20506718.55664</v>
+        <v>20934308.85353</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>23997178.49056</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>25192279.74938</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>30851839.242</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1064921.42118</v>
@@ -1424,37 +1390,42 @@
         <v>1125225.26016</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1321313.07454</v>
+        <v>1321427.45502</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1401710.98174</v>
+        <v>1403611.2389</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1412383.66272</v>
+        <v>1412437.19892</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1594603.92312</v>
+        <v>1602653.78675</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1778326.23086</v>
+        <v>1824138.42532</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2125875.68695</v>
+        <v>2133020.817079999</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>2575538.694190001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3035068.8092</v>
+        <v>3038790.81456</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3389844.6103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>3406997.18514</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4139724.216</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>1003.25723</v>
@@ -1466,34 +1437,39 @@
         <v>4173.86021</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>5130.49228</v>
+        <v>5130.492279999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>9574.353249999998</v>
+        <v>9574.35325</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>30652.38249</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>17800.87932</v>
+        <v>17854.57862</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>27639.50622</v>
+        <v>27765.49572</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>59053.07253</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>41100.03829</v>
+        <v>41440.59186</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>53619.11698</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>54661.44671</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>87258.66899999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>457121.8248999999</v>
@@ -1502,37 +1478,42 @@
         <v>561464.1131699999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>670818.96689</v>
+        <v>670974.80665</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>787936.7999499999</v>
+        <v>789350.4273999999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>942438.0432900001</v>
+        <v>945215.52733</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1176233.14334</v>
+        <v>1178740.41445</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1476546.19574</v>
+        <v>1502676.22169</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1779690.15568</v>
+        <v>1823605.32899</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2535935.18309</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3145750.60239</v>
+        <v>3172746.669</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3729918.560839999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3778129.3548</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4765562.412</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>355497.29211</v>
@@ -1541,37 +1522,42 @@
         <v>430758.13961</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>537277.33314</v>
+        <v>537345.32179</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>629714.16903</v>
+        <v>630727.9469199999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>770820.8021399998</v>
+        <v>773194.87067</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>907237.0910700001</v>
+        <v>909090.11535</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1100905.00695</v>
+        <v>1123345.80687</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1371601.9074</v>
+        <v>1408988.25369</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1842478.71265</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2301294.67735</v>
+        <v>2334026.70804</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2851124.96517</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2917750.78645</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3424067.884</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>529.80154</v>
@@ -1583,7 +1569,7 @@
         <v>429.1913299999999</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>431.9764499999999</v>
+        <v>431.97645</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>643.6561999999999</v>
@@ -1592,10 +1578,10 @@
         <v>2531.20893</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>3397.64627</v>
+        <v>3397.646270000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2704.77949</v>
+        <v>2705.56743</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>6794.54898</v>
@@ -1604,13 +1590,18 @@
         <v>5923.57294</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>19784.00424</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>19840.47545</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>22570.369</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>94460.29150000001</v>
@@ -1622,34 +1613,39 @@
         <v>147557.74768</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>180230.3078</v>
+        <v>180566.37572</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>225254.96021</v>
+        <v>226303.86761</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>258921.52499</v>
+        <v>258925.46999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>334952.2547</v>
+        <v>338188.79785</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>472734.81277</v>
+        <v>479358.08426</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>692656.6355099999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>915260.53395</v>
+        <v>924055.64451</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>1151895.47347</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1171061.32223</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>1423949.637</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>260507.19907</v>
@@ -1658,37 +1654,42 @@
         <v>315736.24809</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>389290.39413</v>
+        <v>389358.38278</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>449051.88478</v>
+        <v>449729.5947499999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>544922.18573</v>
+        <v>546247.34686</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>645784.3571500001</v>
+        <v>647633.4364300001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>762555.10598</v>
+        <v>781759.36275</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>896162.31514</v>
+        <v>926924.602</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1143027.52816</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1380110.57046</v>
+        <v>1404047.49059</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1679445.48746</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1726848.98877</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1977547.878</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>101624.53279</v>
@@ -1697,76 +1698,86 @@
         <v>130705.97356</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>133541.63375</v>
+        <v>133629.48486</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>158222.63092</v>
+        <v>158622.48048</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>171617.24115</v>
+        <v>172020.65666</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>268996.05227</v>
+        <v>269650.2991</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>375641.18879</v>
+        <v>379330.41482</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>408088.2482800001</v>
+        <v>414617.0753</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>693456.4704400001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>844455.92504</v>
+        <v>838719.9609600001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>878793.5956700001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>860378.56835</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1341494.528</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>92711.62012000001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>84539.48891999999</v>
+        <v>84539.48892</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>143609.14113</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>115968.02395</v>
+        <v>116000.16477</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>424772.77301</v>
+        <v>424774.44564</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>333359.50661</v>
+        <v>333398.21096</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>509428.34758</v>
+        <v>509996.62116</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>927544.6375399999</v>
+        <v>934234.9305499999</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>721937.1551900001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1476305.65972</v>
+        <v>1533754.48274</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>759491.2494600001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>815566.8593199999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1608230.861</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>8119.2098</v>
@@ -1781,7 +1792,7 @@
         <v>8969.307789999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>88287.97822999999</v>
+        <v>88287.97823000001</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>9978.46284</v>
@@ -1799,13 +1810,18 @@
         <v>19065.71226</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>15941.27066</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>15947.12793</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>21344.228</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>7125.211210000001</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>4069.56477</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>17629.941</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>6161.318709999999</v>
+        <v>6161.31871</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>8701.63802</v>
@@ -1856,34 +1877,39 @@
         <v>11635.27709</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>12692.9442</v>
+        <v>12694.69023</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>30338.47679</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>28313.38063</v>
+        <v>28317.34539</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>38944.98241</v>
+        <v>38965.07017</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>43730.60451</v>
+        <v>44424.6164</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>62464.40367000001</v>
+        <v>62464.40366999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>74540.92129</v>
+        <v>74847.05682000001</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>83003.24746000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>83440.33487999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>76142.22500000001</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>7501.515179999999</v>
@@ -1901,10 +1927,10 @@
         <v>12547.66796</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>8720.60881</v>
+        <v>8720.608809999998</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>17560.34931</v>
+        <v>17581.23793</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>11074.05221</v>
@@ -1913,16 +1939,21 @@
         <v>14268.36633</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>23203.07775</v>
+        <v>26165.66289</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>28553.14883</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>31053.93733</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>31386.816</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3016.52684</v>
@@ -1931,7 +1962,7 @@
         <v>1738.60535</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>3744.250379999999</v>
+        <v>3744.25038</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>3107.24767</v>
@@ -1946,22 +1977,27 @@
         <v>1644.07406</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2098.277880000001</v>
+        <v>2103.27788</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>2866.81819</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>12573.34089</v>
+        <v>12934.69807</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>6834.824519999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>6838.71004</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>7823.884</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>553.73498</v>
@@ -1973,10 +2009,10 @@
         <v>175.54665</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1540.2501</v>
+        <v>1555.38218</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>759.13564</v>
+        <v>760.46576</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>12742.30132</v>
@@ -1991,55 +2027,65 @@
         <v>805.1583000000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>2880.23917</v>
+        <v>3453.30799</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3538.19143</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>3548.25064</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>17890.293</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>33914.14048</v>
+        <v>33914.14047999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>33339.81969999999</v>
+        <v>33339.8197</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>67733.73492999999</v>
+        <v>67733.73493000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>39651.21973</v>
+        <v>39662.95924</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>196569.62554</v>
+        <v>196569.96805</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>202026.84377</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>371398.4878999999</v>
+        <v>371441.54073</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>762204.02466</v>
+        <v>766820.7174399999</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>471710.29187</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1243768.19928</v>
+        <v>1295573.4966</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>506180.81139</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>558336.9165000001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1297831.342</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>70.56674000000001</v>
@@ -2054,7 +2100,7 @@
         <v>46.9628</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>48.10796000000001</v>
+        <v>48.10796</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>169.7668</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1389.11877</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>5089.671</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>12.1475</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>339.79883</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>480.724</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>26237.24868</v>
@@ -2129,37 +2185,42 @@
         <v>27365.06488</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>34598.67003</v>
+        <v>34602.19323</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>49770.37158</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>50608.45682</v>
+        <v>50643.19641</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>57556.09843999999</v>
+        <v>58040.34281</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>88194.05514</v>
+        <v>89568.64348</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>96444.96139999999</v>
+        <v>96444.9614</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>86045.92922000002</v>
+        <v>87486.30825</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>109641.2728</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>110603.09963</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>132611.737</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>50825.83449</v>
+        <v>50825.83448999999</v>
       </c>
       <c r="D36" s="47" t="n">
         <v>46918.65408</v>
@@ -2168,73 +2229,83 @@
         <v>71472.90066</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>54810.87456</v>
+        <v>54896.88414</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>156074.78679</v>
+        <v>156075.64988</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>208540.87514</v>
+        <v>208542.32778</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>402571.17413</v>
+        <v>402691.18879</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>728816.75425</v>
+        <v>731337.2059500001</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>472787.57727</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1206797.9442</v>
+        <v>1262405.3664</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>519000.47767</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>538081.63011</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1276050.745</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>7194.778050000001</v>
+        <v>7194.77805</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>6250.39258</v>
+        <v>6250.392580000001</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>4920.94592</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2771.03149</v>
+        <v>2771.76007</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>3431.018430000001</v>
+        <v>3431.01843</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4415.67511</v>
+        <v>4415.83759</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3399.6577</v>
+        <v>3409.89288</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>4900.32171</v>
+        <v>4910.07332</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>7082.15742</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>7267.6187</v>
+        <v>7287.3274</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>11173.03217</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>11240.46602</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>19808.55</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>8008.81115</v>
@@ -2246,7 +2317,7 @@
         <v>4091.0708</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>7314.150369999999</v>
+        <v>7314.15037</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>14934.88152</v>
@@ -2258,22 +2329,27 @@
         <v>22689.23992</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>11888.14819</v>
+        <v>11893.14819</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>17893.79368</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>35271.84444</v>
+        <v>35763.09281</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>30602.08955</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>30764.38566</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>37370.239</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>174.89606</v>
@@ -2285,10 +2361,10 @@
         <v>102.72678</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>242.31554</v>
+        <v>260.22967</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>248.66038</v>
+        <v>248.99367</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>154.44812</v>
@@ -2300,19 +2376,24 @@
         <v>205.34869</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>999.1975099999999</v>
+        <v>999.19751</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>1395.72928</v>
+        <v>1395.95737</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>968.5528099999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>968.55281</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>3565.756</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>32484.76863</v>
@@ -2324,34 +2405,39 @@
         <v>58041.50843</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>40853.41081</v>
+        <v>40920.77349</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>132757.16712</v>
+        <v>132757.69692</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>186361.04586</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>342286.99001</v>
+        <v>342300.96429</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>698061.19228</v>
+        <v>700195.51353</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>420185.1315600001</v>
+        <v>420185.13156</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1140992.6447</v>
+        <v>1195732.32943</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>448871.67138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>466905.57212</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1184556.464</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>247.6809</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1821.58832</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>2619.8</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>66.33197</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>51.96935</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>7.248</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>2648.56773</v>
@@ -2441,34 +2537,39 @@
         <v>4137.4388</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3522.98898</v>
+        <v>3522.99317</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4576.07029</v>
+        <v>4576.070290000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>8992.932929999999</v>
+        <v>8994.22309</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>14845.52649</v>
+        <v>14941.33169</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>13471.73045</v>
+        <v>13843.10929</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>25882.74764</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>20673.11342</v>
+        <v>21029.66573</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>25511.57409</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>26329.09583</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>28122.688</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>20821.64582</v>
@@ -2480,34 +2581,39 @@
         <v>31047.78312</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>48594.70826000001</v>
+        <v>48689.045</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>73216.81000999999</v>
+        <v>73511.07596</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>105152.61586</v>
+        <v>105529.49474</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>164262.68186</v>
+        <v>165731.70053</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>199801.58416</v>
+        <v>202964.00164</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>259726.02264</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>385595.47601</v>
+        <v>389988.11684</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>339775.34324</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>348854.3853200001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>471520.656</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>19843.8061</v>
@@ -2519,37 +2625,42 @@
         <v>29239.37496</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>44835.62276</v>
+        <v>44928.3395</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>63450.98904</v>
+        <v>63745.25498999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>91136.43156999999</v>
+        <v>91513.31044999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>120321.61427</v>
+        <v>121790.63294</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>151105.62156</v>
+        <v>154268.03904</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>229051.42222</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>279332.7796</v>
+        <v>283725.42043</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>324914.17939</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>333443.22889</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>454694.864</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>977.8397200000001</v>
+        <v>977.8397199999999</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>912.2053000000001</v>
@@ -2558,7 +2669,7 @@
         <v>1808.40816</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>3759.0855</v>
+        <v>3760.7055</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>9765.820969999999</v>
@@ -2567,7 +2678,7 @@
         <v>14016.18429</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>43941.06759000001</v>
+        <v>43941.06759</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>48695.9626</v>
@@ -2579,13 +2690,18 @@
         <v>106262.69641</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>14861.16385</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>15411.15643</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>16825.792</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>122688.6726</v>
@@ -2594,37 +2710,42 @@
         <v>148724.23892</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>174630.0911</v>
+        <v>174717.94221</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>170785.07205</v>
+        <v>171036.71611</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>367098.41736</v>
+        <v>367208.37646</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>288662.06788</v>
+        <v>288976.68754</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>318235.68038</v>
+        <v>320904.14666</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>407014.54741</v>
+        <v>414550.79826</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>682880.02572</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>728368.1645500001</v>
+        <v>720080.9604600001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>779509.02422</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>789009.41224</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1202153.988</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>9603.819460000001</v>
@@ -2636,34 +2757,39 @@
         <v>20576.57356</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>36885.67569</v>
+        <v>36970.45015999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>36547.40217</v>
+        <v>36552.16654</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>58277.63912000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>93993.49900000001</v>
+        <v>94111.18474000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>53733.28083</v>
+        <v>54681.24759000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>75705.19058000001</v>
+        <v>75705.19057999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>73522.57023</v>
+        <v>76157.60255</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>102545.8788</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>107321.36572</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>203589.248</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>221.97332</v>
@@ -2672,7 +2798,7 @@
         <v>494.40901</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>820.48189</v>
+        <v>820.4818899999999</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>340.45616</v>
@@ -2687,22 +2813,27 @@
         <v>1694.12473</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>585.9793199999999</v>
+        <v>688.48726</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>683.58173</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1726.22622</v>
+        <v>1726.42622</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1773.89108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1788.11151</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1411.429</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>9381.846140000001</v>
@@ -2714,34 +2845,39 @@
         <v>19756.09167</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>36545.21953</v>
+        <v>36629.994</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>36228.71087</v>
+        <v>36233.47523999999</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>57364.99121000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>92299.37427000001</v>
+        <v>92417.06000999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>53147.30151</v>
+        <v>53992.76033</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>75021.60885</v>
+        <v>75021.60884999999</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>71796.34400999999</v>
+        <v>74431.17633</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>100771.98772</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>105533.25421</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>202177.819</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>9970.98653</v>
@@ -2750,37 +2886,42 @@
         <v>16437.67666</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>76902.93931999999</v>
+        <v>76902.98030999998</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>19115.4001</v>
+        <v>19339.08442</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>27538.99837</v>
+        <v>27627.35449</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>85081.95956999999</v>
+        <v>85098.27472</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>60779.38968</v>
+        <v>60963.99184</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>252822.72457</v>
+        <v>252970.87207</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>60301.45128</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>140943.12152</v>
+        <v>183679.93719</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>84501.28847</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>87066.28542999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>106678.178</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>56.91723</v>
@@ -2804,22 +2945,27 @@
         <v>1146.20771</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1450.38001</v>
+        <v>1455.54029</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>1598.72429</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1045.62365</v>
+        <v>1051.13265</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>605.23547</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>1842.958</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>530.13397</v>
@@ -2831,7 +2977,7 @@
         <v>613.41686</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>350.78645</v>
+        <v>532.34448</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>600.5795599999999</v>
@@ -2840,25 +2986,30 @@
         <v>1394.26701</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1098.86326</v>
+        <v>1114.88743</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1969.21947</v>
+        <v>1975.79699</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>2052.40733</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2595.55386</v>
+        <v>2600.75414</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>3665.37057</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3669.76865</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>6730.099</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>9383.93533</v>
@@ -2867,37 +3018,42 @@
         <v>14710.14517</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>76182.28697</v>
+        <v>76182.32796000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>16064.66082</v>
+        <v>16106.78711</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>25620.95186</v>
+        <v>25709.30798</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>82209.25458999998</v>
+        <v>82225.56974000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>58534.31870999999</v>
+        <v>58702.8967</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>249403.12509</v>
+        <v>249539.53479</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>56650.31965999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>137301.94401</v>
+        <v>180028.0504</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>80230.68242999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>82791.28131000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>98105.121</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>122321.50553</v>
@@ -2906,37 +3062,42 @@
         <v>151159.28727</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>118303.72534</v>
+        <v>118391.53546</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>188555.34764</v>
+        <v>188668.08185</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>376106.8211600001</v>
+        <v>376133.18851</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>261857.74743</v>
+        <v>262156.05194</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>351449.7897</v>
+        <v>354051.33956</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>207925.10367</v>
+        <v>216261.17378</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>698283.7650199999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>660947.61326</v>
+        <v>612558.62582</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>797553.6145499999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>809264.4925299999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1299065.058</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>23061.53893</v>
@@ -2945,37 +3106,42 @@
         <v>29577.62843</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>38497.63516</v>
+        <v>38515.06462</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>40746.61308</v>
+        <v>40799.00388</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>59083.94246999999</v>
+        <v>59134.29506000001</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>69612.4531</v>
+        <v>69688.20314</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>105888.85614</v>
+        <v>106126.10754</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>90259.35896000001</v>
+        <v>91651.20435000001</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>136419.0399</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>211564.9076</v>
+        <v>213335.74858</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>206195.10562</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>208491.92267</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>335398.503</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>99259.96660000001</v>
@@ -2984,34 +3150,37 @@
         <v>121581.65884</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>79806.09018000001</v>
+        <v>79876.47083999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>147808.73456</v>
+        <v>147869.07797</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>317022.87869</v>
+        <v>316998.89345</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>192245.29433</v>
+        <v>192467.8488</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>245560.93356</v>
+        <v>247925.23202</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>117665.74471</v>
+        <v>124609.96943</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>561864.72512</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>449382.70566</v>
+        <v>399222.87724</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>591358.5089299999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>600772.56986</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>963666.5550000001</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>3221</v>
@@ -3038,34 +3210,37 @@
         <v>3510</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3951</v>
+        <v>3955</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>4328</v>
+        <v>4339</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>4875</v>
+        <v>4887</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>5220</v>
+        <v>5236</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>5718</v>
+        <v>5766</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>6433</v>
+        <v>6481</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>7355</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>7008</v>
+        <v>8530</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>7267</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>9341</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>10527</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>